--- a/code/validator/www/microplastic_images/image_explorer_rules.xlsx
+++ b/code/validator/www/microplastic_images/image_explorer_rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/MooreResearchRepository/Microplastic_Data_Portal/code/validator/www/microplastic_images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE07950-9E42-4A44-9665-6923C6A0A121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC4E34E-90C6-8D4A-916F-451867C5124E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/code/validator/www/microplastic_images/image_explorer_rules.xlsx
+++ b/code/validator/www/microplastic_images/image_explorer_rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/MooreResearchRepository/Microplastic_Data_Portal/code/validator/www/microplastic_images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC4E34E-90C6-8D4A-916F-451867C5124E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEA231D-B046-9F4E-A36D-B3759E8FA497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="image_explorer_rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>ImageType %in% c("SEM", "Visual", "Fluorescence") &amp; !is.na(ImageType)</t>
+  </si>
+  <si>
+    <t>MicroplasticImages_valid</t>
+  </si>
+  <si>
+    <t>check_exists_in_zip(MicroplasticImages)</t>
+  </si>
+  <si>
+    <t>Name of images is correct</t>
+  </si>
+  <si>
+    <t>mcrplsts_plcy_drft.pdf</t>
   </si>
 </sst>
 </file>
@@ -588,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -885,6 +897,23 @@
         <v>65</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/validator/www/microplastic_images/image_explorer_rules.xlsx
+++ b/code/validator/www/microplastic_images/image_explorer_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/MooreResearchRepository/Microplastic_Data_Portal/code/validator/www/microplastic_images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEA231D-B046-9F4E-A36D-B3759E8FA497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5975F89F-F968-244D-94B2-08AA5DA9144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,16 +239,16 @@
     <t>ImageType %in% c("SEM", "Visual", "Fluorescence") &amp; !is.na(ImageType)</t>
   </si>
   <si>
-    <t>MicroplasticImages_valid</t>
+    <t>MicroplasticImages</t>
+  </si>
+  <si>
+    <t>Name of image must be correct</t>
+  </si>
+  <si>
+    <t>ALGALITA_CW_3_above500_30.jpeg</t>
   </si>
   <si>
     <t>check_exists_in_zip(MicroplasticImages)</t>
-  </si>
-  <si>
-    <t>Name of images is correct</t>
-  </si>
-  <si>
-    <t>mcrplsts_plcy_drft.pdf</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -902,16 +902,16 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
         <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/code/validator/www/microplastic_images/image_explorer_rules.xlsx
+++ b/code/validator/www/microplastic_images/image_explorer_rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/MooreResearchRepository/Microplastic_Data_Portal/code/validator/www/microplastic_images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5975F89F-F968-244D-94B2-08AA5DA9144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BC67DC5-8300-4245-B567-58A5B0D94FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35740" yWindow="-6420" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="image_explorer_rules" sheetId="1" r:id="rId1"/>
@@ -248,7 +248,7 @@
     <t>ALGALITA_CW_3_above500_30.jpeg</t>
   </si>
   <si>
-    <t>check_exists_in_zip(MicroplasticImages)</t>
+    <t>check_exists_in_zip(MicroplasticImages )</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
